--- a/data/trans_orig/Q47-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>172,46</t>
+          <t>172,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>172,99</t>
+          <t>172,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>172,82</t>
+          <t>172,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>173,27</t>
+          <t>173,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>160,06</t>
+          <t>160,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>160,98</t>
+          <t>160,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>161,16</t>
+          <t>160,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>161,1</t>
+          <t>161,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>166,33</t>
+          <t>166,57</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>167,21</t>
+          <t>166,59</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>167,22</t>
+          <t>166,93</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>166,5</t>
+          <t>167,49</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>171,07; 173,89</t>
+          <t>171,98; 173,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>171,26; 174,61</t>
+          <t>171,74; 172,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>171,33; 174,48</t>
+          <t>172,38; 173,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>171,74; 175,85</t>
+          <t>172,67; 174,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>159,08; 161,1</t>
+          <t>160,0; 161,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>159,7; 162,23</t>
+          <t>160,08; 161,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>159,86; 162,39</t>
+          <t>160,19; 161,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>160,12; 162,11</t>
+          <t>161,5; 162,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165,2; 167,53</t>
+          <t>166,02; 167,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>166,01; 168,51</t>
+          <t>166,09; 167,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>165,94; 168,61</t>
+          <t>166,4; 167,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>165,39; 167,95</t>
+          <t>167,01; 168,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>172,58</t>
+          <t>173,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>172,2</t>
+          <t>173,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>173,01</t>
+          <t>173,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>173,16</t>
+          <t>175,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>160,62</t>
+          <t>160,45</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>160,55</t>
+          <t>160,76</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>160,6</t>
+          <t>161,4</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>162,07</t>
+          <t>162,3</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>166,62</t>
+          <t>166,83</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>166,47</t>
+          <t>166,89</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>166,87</t>
+          <t>167,44</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>167,46</t>
+          <t>169,71</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>171,96; 173,2</t>
+          <t>172,74; 173,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>171,57; 172,88</t>
+          <t>172,51; 173,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>172,37; 173,66</t>
+          <t>173,06; 174,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>172,53; 173,73</t>
+          <t>173,76; 178,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>160,01; 161,18</t>
+          <t>159,98; 160,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>159,97; 161,07</t>
+          <t>160,31; 161,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>160,07; 161,24</t>
+          <t>160,98; 161,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>161,62; 162,57</t>
+          <t>161,98; 162,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>166,08; 167,17</t>
+          <t>166,38; 167,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>165,9; 167,02</t>
+          <t>166,5; 167,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>166,31; 167,46</t>
+          <t>167,01; 167,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,96; 167,97</t>
+          <t>167,98; 174,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>173,26</t>
+          <t>173,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>173,0</t>
+          <t>173,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>173,56</t>
+          <t>173,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>174,19</t>
+          <t>173,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>160,45</t>
+          <t>161,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>160,76</t>
+          <t>161,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>161,4</t>
+          <t>162,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>162,34</t>
+          <t>160,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>166,83</t>
+          <t>167,25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>166,89</t>
+          <t>167,34</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>167,44</t>
+          <t>167,88</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>168,25</t>
+          <t>166,16</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,74; 173,74</t>
+          <t>172,67; 173,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>172,51; 173,49</t>
+          <t>173,0; 174,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>173,06; 174,1</t>
+          <t>173,28; 174,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>173,59; 175,64</t>
+          <t>172,78; 173,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,98; 160,88</t>
+          <t>160,72; 161,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,31; 161,21</t>
+          <t>160,67; 161,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>160,98; 161,89</t>
+          <t>161,53; 162,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>162,02; 162,74</t>
+          <t>157,72; 162,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>166,38; 167,26</t>
+          <t>166,71; 167,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166,5; 167,32</t>
+          <t>166,84; 167,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167,01; 167,92</t>
+          <t>167,4; 168,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>167,72; 169,66</t>
+          <t>162,19; 167,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>173,28</t>
+          <t>173,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>173,58</t>
+          <t>173,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>173,86</t>
+          <t>174,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>173,28</t>
+          <t>174,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>161,26</t>
+          <t>161,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>161,21</t>
+          <t>161,42</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>162,0</t>
+          <t>161,56</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>161,18</t>
+          <t>161,3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>167,25</t>
+          <t>167,1</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>167,34</t>
+          <t>167,19</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>167,88</t>
+          <t>167,83</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>166,76</t>
+          <t>167,21</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,67; 173,82</t>
+          <t>173,01; 173,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173,0; 174,17</t>
+          <t>172,97; 173,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,28; 174,43</t>
+          <t>174,23; 175,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172,72; 173,87</t>
+          <t>173,62; 174,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,72; 161,77</t>
+          <t>160,9; 161,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,67; 161,7</t>
+          <t>161,02; 161,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,53; 162,47</t>
+          <t>161,16; 161,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>158,96; 162,26</t>
+          <t>159,75; 162,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,74</t>
+          <t>166,67; 167,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,84; 167,86</t>
+          <t>166,76; 167,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,4; 168,31</t>
+          <t>167,38; 168,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>164,21; 167,83</t>
+          <t>165,31; 167,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>173,47</t>
+          <t>173,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>173,48</t>
+          <t>173,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>174,77</t>
+          <t>173,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>173,94</t>
+          <t>174,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>161,29</t>
+          <t>160,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>161,42</t>
+          <t>161,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>161,56</t>
+          <t>161,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>161,74</t>
+          <t>161,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>167,1</t>
+          <t>166,95</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>167,19</t>
+          <t>167,01</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>167,83</t>
+          <t>167,55</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>167,35</t>
+          <t>167,79</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>173,01; 173,93</t>
+          <t>172,91; 173,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,97; 173,95</t>
+          <t>172,85; 173,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>174,23; 175,25</t>
+          <t>173,58; 174,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>173,45; 174,48</t>
+          <t>173,62; 176,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>160,9; 161,73</t>
+          <t>160,66; 161,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>161,02; 161,87</t>
+          <t>160,78; 161,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>161,16; 161,99</t>
+          <t>161,21; 161,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>161,09; 162,19</t>
+          <t>160,16; 162,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>166,67; 167,53</t>
+          <t>166,73; 167,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,76; 167,6</t>
+          <t>166,79; 167,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>167,38; 168,29</t>
+          <t>167,28; 167,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>166,83; 167,77</t>
+          <t>166,7; 169,23</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>173,18</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>173,12</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>173,85</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>173,73</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>160,89</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>161,03</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>161,45</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>161,81</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>166,95</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>167,01</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>167,55</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>167,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>172,91; 173,42</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>172,85; 173,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>173,58; 174,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>173,41; 174,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>160,66; 161,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>160,78; 161,24</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>161,21; 161,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>161,06; 162,12</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>166,73; 167,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>166,79; 167,25</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>167,28; 167,77</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>166,84; 167,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q47-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>171,98; 173,07</t>
+          <t>172,0; 173,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>171,74; 172,92</t>
+          <t>171,74; 172,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>172,38; 173,55</t>
+          <t>172,38; 173,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>172,67; 174,13</t>
+          <t>172,68; 174,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>160,0; 161,05</t>
+          <t>160,07; 161,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>160,08; 161,15</t>
+          <t>160,07; 161,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>160,19; 161,21</t>
+          <t>160,22; 161,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>161,5; 162,35</t>
+          <t>161,48; 162,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166,02; 167,03</t>
+          <t>166,1; 167,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>166,09; 167,12</t>
+          <t>166,04; 167,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166,4; 167,46</t>
+          <t>166,45; 167,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>167,01; 168,07</t>
+          <t>166,97; 168,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>172,74; 173,74</t>
+          <t>172,81; 173,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>172,51; 173,49</t>
+          <t>172,49; 173,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>173,06; 174,1</t>
+          <t>173,09; 174,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>173,76; 178,67</t>
+          <t>173,72; 178,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>159,98; 160,88</t>
+          <t>160,01; 160,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>160,31; 161,21</t>
+          <t>160,34; 161,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>160,98; 161,89</t>
+          <t>160,96; 161,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>161,98; 162,68</t>
+          <t>161,96; 162,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>166,38; 167,26</t>
+          <t>166,41; 167,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>166,5; 167,32</t>
+          <t>166,48; 167,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>167,01; 167,92</t>
+          <t>167,02; 167,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>167,98; 174,2</t>
+          <t>167,96; 173,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,67; 173,82</t>
+          <t>172,71; 173,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>173,0; 174,17</t>
+          <t>173,02; 174,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>173,28; 174,43</t>
+          <t>173,29; 174,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172,78; 173,94</t>
+          <t>172,69; 173,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>160,72; 161,77</t>
+          <t>160,73; 161,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,67; 161,7</t>
+          <t>160,69; 161,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>161,53; 162,47</t>
+          <t>161,48; 162,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>157,72; 162,27</t>
+          <t>157,81; 162,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,74</t>
+          <t>166,74; 167,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166,84; 167,86</t>
+          <t>166,81; 167,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167,4; 168,31</t>
+          <t>167,32; 168,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>162,19; 167,97</t>
+          <t>161,94; 167,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>173,01; 173,93</t>
+          <t>173,04; 173,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,97; 173,95</t>
+          <t>172,96; 174,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>174,23; 175,25</t>
+          <t>174,24; 175,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173,62; 174,71</t>
+          <t>173,57; 174,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,9; 161,73</t>
+          <t>160,88; 161,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>161,02; 161,87</t>
+          <t>161,02; 161,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,16; 161,99</t>
+          <t>161,11; 161,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>159,75; 162,05</t>
+          <t>159,5; 162,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,67; 167,53</t>
+          <t>166,75; 167,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,76; 167,6</t>
+          <t>166,76; 167,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,38; 168,29</t>
+          <t>167,33; 168,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>165,31; 167,9</t>
+          <t>165,5; 167,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>172,91; 173,42</t>
+          <t>172,92; 173,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,38</t>
+          <t>172,87; 173,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,12</t>
+          <t>173,59; 174,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>173,62; 176,07</t>
+          <t>173,64; 176,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,13</t>
+          <t>160,65; 161,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>160,78; 161,24</t>
+          <t>160,78; 161,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>160,16; 162,04</t>
+          <t>160,25; 162,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,16</t>
+          <t>166,72; 167,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,79; 167,25</t>
+          <t>166,78; 167,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>167,28; 167,77</t>
+          <t>167,32; 167,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>166,7; 169,23</t>
+          <t>166,73; 169,32</t>
         </is>
       </c>
     </row>
